--- a/Datasets/college_complete_rural_urban_data/Urban_College_Complete_State.xlsx
+++ b/Datasets/college_complete_rural_urban_data/Urban_College_Complete_State.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristanherink/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristanherink/Election_Prediction/Datasets/college_complete_rural_urban_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2743C80-0AB1-B548-8B2E-EDCE950F9387}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D79FEB3-4571-3743-9016-B6E7476E98B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16020" xr2:uid="{8EEF4044-3E75-1140-8291-906F35366DA0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>2014-2018</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
   </si>
 </sst>
 </file>
@@ -559,7 +556,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1605,64 +1602,61 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A53" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" xr:uid="{C4D7BEFA-70BF-EE46-8387-437361E92A4C}"/>
-    <hyperlink ref="A3" xr:uid="{3F6AF26D-1255-7E4C-A0F8-178DA6DE27C7}"/>
-    <hyperlink ref="A4" xr:uid="{B5285D93-E428-A942-A33B-6E94AB9D680B}"/>
-    <hyperlink ref="A5" xr:uid="{45CC78DA-9AFC-A24D-9230-5B9E5322B1F6}"/>
-    <hyperlink ref="A6" xr:uid="{CD7F09A8-20B1-194E-B6A2-A23334FDB9D2}"/>
-    <hyperlink ref="A7" xr:uid="{6278BCAC-DD43-954B-BE04-E35ECB3A9935}"/>
-    <hyperlink ref="A8" xr:uid="{5AB8877C-CBA6-0E4F-B286-B2DB7C744D57}"/>
-    <hyperlink ref="A9" xr:uid="{B566C9CD-7BB9-1846-AD11-7AC8E4ECB801}"/>
-    <hyperlink ref="A10" xr:uid="{53DAADFF-AEA4-C746-99B9-46C2BC9D38BE}"/>
-    <hyperlink ref="A11" xr:uid="{43F21DB3-FBC5-D947-A23E-39A23AAB5A82}"/>
-    <hyperlink ref="A12" xr:uid="{220DD153-49B0-634D-972F-E183D2B648DD}"/>
-    <hyperlink ref="A13" xr:uid="{02B4293C-69FE-1940-A431-70D17C370077}"/>
-    <hyperlink ref="A14" xr:uid="{865C74BC-0E89-534A-9E1F-5F75DB258F50}"/>
-    <hyperlink ref="A15" xr:uid="{1B223F26-F66B-3843-B205-920152B0F4C4}"/>
-    <hyperlink ref="A16" xr:uid="{A4141AEA-D6FA-7B41-A7E2-55AF1C96DB1B}"/>
-    <hyperlink ref="A17" xr:uid="{C3BC0A1F-8AC7-1648-BD3A-7C4C29516E28}"/>
-    <hyperlink ref="A18" xr:uid="{3F8821E0-3A8B-7541-A048-3438021FAD6B}"/>
-    <hyperlink ref="A19" xr:uid="{506525D8-252E-6D40-99D3-3EE90986C868}"/>
-    <hyperlink ref="A20" xr:uid="{48E07DC3-5CA2-DF4B-AA28-F5D002747486}"/>
-    <hyperlink ref="A21" xr:uid="{07684ADA-56F2-8B4E-8510-4DB56154000E}"/>
-    <hyperlink ref="A22" xr:uid="{5B266331-A012-7547-8646-9374AD6FA788}"/>
-    <hyperlink ref="A23" xr:uid="{76FC7F3F-B738-1F4F-8FA5-F274D0759098}"/>
-    <hyperlink ref="A24" xr:uid="{715B9FFF-42E8-D947-8AD5-0178461BBDB2}"/>
-    <hyperlink ref="A25" xr:uid="{BF18DD40-BB49-A54C-8601-14EF28708231}"/>
-    <hyperlink ref="A26" xr:uid="{0CE091E1-4A71-7747-9CF8-70662411FD84}"/>
-    <hyperlink ref="A27" xr:uid="{6F047321-AAF9-B74C-8CBE-E8CEF0EDFD57}"/>
-    <hyperlink ref="A28" xr:uid="{661C3CA5-03D6-EA47-ACE0-177468E84548}"/>
-    <hyperlink ref="A29" xr:uid="{6ED1F0A7-EBCB-4A4B-A36F-8092D64264D1}"/>
-    <hyperlink ref="A30" xr:uid="{B4104DC9-56C8-324C-8A09-87F86E5C8F5F}"/>
-    <hyperlink ref="A31" xr:uid="{09EF1638-E6D0-504B-B3B8-A878E8A06ACB}"/>
-    <hyperlink ref="A32" xr:uid="{28E1CBFC-1AA5-E241-A084-753FA4244ADB}"/>
-    <hyperlink ref="A33" xr:uid="{EC9F93B4-F7C8-B24B-AA83-2AA90F8F4507}"/>
-    <hyperlink ref="A34" xr:uid="{F6FF7D1E-03D1-874E-880A-91ACCF67D0E9}"/>
-    <hyperlink ref="A35" xr:uid="{8A05F03A-23A8-9B41-AA94-46531C388465}"/>
-    <hyperlink ref="A36" xr:uid="{FCE9F28C-66DF-C44E-8DBA-53C2153DD948}"/>
-    <hyperlink ref="A37" xr:uid="{CB53F835-3456-EB41-8BE2-9738239CCCA0}"/>
-    <hyperlink ref="A38" xr:uid="{7B7796D3-EB56-3A48-9771-7E00C144CAFE}"/>
-    <hyperlink ref="A39" xr:uid="{E8FF513D-A091-C645-9ED2-28391F821EA1}"/>
-    <hyperlink ref="A40" xr:uid="{D929B821-588F-0944-9652-47F7598FCF0A}"/>
-    <hyperlink ref="A41" xr:uid="{266AF2EB-E7D1-4F41-816B-CFAB328CC7B4}"/>
-    <hyperlink ref="A42" xr:uid="{7A6BE12A-4EA6-E643-B850-362BCE1D4A91}"/>
-    <hyperlink ref="A43" xr:uid="{45B472DC-CF92-524C-B596-53CE3DA1670C}"/>
-    <hyperlink ref="A44" xr:uid="{F2E3C165-D962-D045-9CFD-C014B9910472}"/>
-    <hyperlink ref="A45" xr:uid="{E73920B9-A7E0-FA45-BAB2-4491D87DFDBD}"/>
-    <hyperlink ref="A46" xr:uid="{B2E9F163-ADFE-E64B-A5AE-AB8458740AD1}"/>
-    <hyperlink ref="A47" xr:uid="{550D8EDF-87E4-B54D-8344-96F23EF7ACA9}"/>
-    <hyperlink ref="A48" xr:uid="{031F351C-B034-4549-8C21-4C9095FEEA73}"/>
-    <hyperlink ref="A49" xr:uid="{BBA24AEF-85A7-2C48-8286-A3909D8A0350}"/>
-    <hyperlink ref="A50" xr:uid="{B9E6956F-1CBB-7D41-A44B-5AB1FF3065D2}"/>
-    <hyperlink ref="A51" xr:uid="{03490364-D02C-B645-B431-222ACE45454A}"/>
-    <hyperlink ref="A52" xr:uid="{B11F1D5C-5057-F945-878A-387A101D0DD0}"/>
-    <hyperlink ref="A53" xr:uid="{713AAFE3-1337-E449-95D6-BBE4421A3C63}"/>
+    <hyperlink ref="A2" display="Alabama" xr:uid="{C4D7BEFA-70BF-EE46-8387-437361E92A4C}"/>
+    <hyperlink ref="A3" display="Alaska" xr:uid="{3F6AF26D-1255-7E4C-A0F8-178DA6DE27C7}"/>
+    <hyperlink ref="A4" display="Arizona" xr:uid="{B5285D93-E428-A942-A33B-6E94AB9D680B}"/>
+    <hyperlink ref="A5" display="Arkansas" xr:uid="{45CC78DA-9AFC-A24D-9230-5B9E5322B1F6}"/>
+    <hyperlink ref="A6" display="California" xr:uid="{CD7F09A8-20B1-194E-B6A2-A23334FDB9D2}"/>
+    <hyperlink ref="A7" display="Colorado" xr:uid="{6278BCAC-DD43-954B-BE04-E35ECB3A9935}"/>
+    <hyperlink ref="A8" display="Connecticut" xr:uid="{5AB8877C-CBA6-0E4F-B286-B2DB7C744D57}"/>
+    <hyperlink ref="A9" display="Delaware" xr:uid="{B566C9CD-7BB9-1846-AD11-7AC8E4ECB801}"/>
+    <hyperlink ref="A10" display="District of Columbia" xr:uid="{53DAADFF-AEA4-C746-99B9-46C2BC9D38BE}"/>
+    <hyperlink ref="A11" display="Florida" xr:uid="{43F21DB3-FBC5-D947-A23E-39A23AAB5A82}"/>
+    <hyperlink ref="A12" display="Georgia" xr:uid="{220DD153-49B0-634D-972F-E183D2B648DD}"/>
+    <hyperlink ref="A13" display="Hawaii" xr:uid="{02B4293C-69FE-1940-A431-70D17C370077}"/>
+    <hyperlink ref="A14" display="Idaho" xr:uid="{865C74BC-0E89-534A-9E1F-5F75DB258F50}"/>
+    <hyperlink ref="A15" display="Illinois" xr:uid="{1B223F26-F66B-3843-B205-920152B0F4C4}"/>
+    <hyperlink ref="A16" display="Indiana" xr:uid="{A4141AEA-D6FA-7B41-A7E2-55AF1C96DB1B}"/>
+    <hyperlink ref="A17" display="Iowa" xr:uid="{C3BC0A1F-8AC7-1648-BD3A-7C4C29516E28}"/>
+    <hyperlink ref="A18" display="Kansas" xr:uid="{3F8821E0-3A8B-7541-A048-3438021FAD6B}"/>
+    <hyperlink ref="A19" display="Kentucky" xr:uid="{506525D8-252E-6D40-99D3-3EE90986C868}"/>
+    <hyperlink ref="A20" display="Louisiana" xr:uid="{48E07DC3-5CA2-DF4B-AA28-F5D002747486}"/>
+    <hyperlink ref="A21" display="Maine" xr:uid="{07684ADA-56F2-8B4E-8510-4DB56154000E}"/>
+    <hyperlink ref="A22" display="Maryland" xr:uid="{5B266331-A012-7547-8646-9374AD6FA788}"/>
+    <hyperlink ref="A23" display="Massachusetts" xr:uid="{76FC7F3F-B738-1F4F-8FA5-F274D0759098}"/>
+    <hyperlink ref="A24" display="Michigan" xr:uid="{715B9FFF-42E8-D947-8AD5-0178461BBDB2}"/>
+    <hyperlink ref="A25" display="Minnesota" xr:uid="{BF18DD40-BB49-A54C-8601-14EF28708231}"/>
+    <hyperlink ref="A26" display="Mississippi" xr:uid="{0CE091E1-4A71-7747-9CF8-70662411FD84}"/>
+    <hyperlink ref="A27" display="Missouri" xr:uid="{6F047321-AAF9-B74C-8CBE-E8CEF0EDFD57}"/>
+    <hyperlink ref="A28" display="Montana" xr:uid="{661C3CA5-03D6-EA47-ACE0-177468E84548}"/>
+    <hyperlink ref="A29" display="Nebraska" xr:uid="{6ED1F0A7-EBCB-4A4B-A36F-8092D64264D1}"/>
+    <hyperlink ref="A30" display="Nevada" xr:uid="{B4104DC9-56C8-324C-8A09-87F86E5C8F5F}"/>
+    <hyperlink ref="A31" display="New Hampshire" xr:uid="{09EF1638-E6D0-504B-B3B8-A878E8A06ACB}"/>
+    <hyperlink ref="A32" display="New Jersey" xr:uid="{28E1CBFC-1AA5-E241-A084-753FA4244ADB}"/>
+    <hyperlink ref="A33" display="New Mexico" xr:uid="{EC9F93B4-F7C8-B24B-AA83-2AA90F8F4507}"/>
+    <hyperlink ref="A34" display="New York" xr:uid="{F6FF7D1E-03D1-874E-880A-91ACCF67D0E9}"/>
+    <hyperlink ref="A35" display="North Carolina" xr:uid="{8A05F03A-23A8-9B41-AA94-46531C388465}"/>
+    <hyperlink ref="A36" display="North Dakota" xr:uid="{FCE9F28C-66DF-C44E-8DBA-53C2153DD948}"/>
+    <hyperlink ref="A37" display="Ohio" xr:uid="{CB53F835-3456-EB41-8BE2-9738239CCCA0}"/>
+    <hyperlink ref="A38" display="Oklahoma" xr:uid="{7B7796D3-EB56-3A48-9771-7E00C144CAFE}"/>
+    <hyperlink ref="A39" display="Oregon" xr:uid="{E8FF513D-A091-C645-9ED2-28391F821EA1}"/>
+    <hyperlink ref="A40" display="Pennsylvania" xr:uid="{D929B821-588F-0944-9652-47F7598FCF0A}"/>
+    <hyperlink ref="A41" display="Rhode Island" xr:uid="{266AF2EB-E7D1-4F41-816B-CFAB328CC7B4}"/>
+    <hyperlink ref="A42" display="South Carolina" xr:uid="{7A6BE12A-4EA6-E643-B850-362BCE1D4A91}"/>
+    <hyperlink ref="A43" display="South Dakota" xr:uid="{45B472DC-CF92-524C-B596-53CE3DA1670C}"/>
+    <hyperlink ref="A44" display="Tennessee" xr:uid="{F2E3C165-D962-D045-9CFD-C014B9910472}"/>
+    <hyperlink ref="A45" display="Texas" xr:uid="{E73920B9-A7E0-FA45-BAB2-4491D87DFDBD}"/>
+    <hyperlink ref="A46" display="Utah" xr:uid="{B2E9F163-ADFE-E64B-A5AE-AB8458740AD1}"/>
+    <hyperlink ref="A47" display="Vermont" xr:uid="{550D8EDF-87E4-B54D-8344-96F23EF7ACA9}"/>
+    <hyperlink ref="A48" display="Virginia" xr:uid="{031F351C-B034-4549-8C21-4C9095FEEA73}"/>
+    <hyperlink ref="A49" display="Washington" xr:uid="{BBA24AEF-85A7-2C48-8286-A3909D8A0350}"/>
+    <hyperlink ref="A50" display="West Virginia" xr:uid="{B9E6956F-1CBB-7D41-A44B-5AB1FF3065D2}"/>
+    <hyperlink ref="A51" display="Wisconsin" xr:uid="{03490364-D02C-B645-B431-222ACE45454A}"/>
+    <hyperlink ref="A52" display="Wyoming" xr:uid="{B11F1D5C-5057-F945-878A-387A101D0DD0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
